--- a/UNIVER.xlsx
+++ b/UNIVER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TSTUz backup\TSTUz-BAZA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TSTUz-BAZA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18A94FE-03D9-4BB3-92DB-2051ACAA42B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B778B268-447D-4AB3-A45B-6B9B1CD42F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Univer" sheetId="8" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="Home_page" sheetId="7" r:id="rId8"/>
     <sheet name="Home_page (2)" sheetId="9" r:id="rId9"/>
     <sheet name="users" sheetId="11" r:id="rId10"/>
+    <sheet name="Лист2" sheetId="12" r:id="rId11"/>
+    <sheet name="departaments_details" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="178">
   <si>
     <t>#</t>
   </si>
@@ -574,6 +576,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>updated_at user_id</t>
   </si>
 </sst>
 </file>
@@ -1490,11 +1498,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664D34E3-92CA-4EC7-8231-1AF23524D848}">
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630FCF58-3964-4532-82CA-D0070D3AEE72}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -1967,7 +2044,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G13"/>
+      <selection activeCell="G13" sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2261,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G8"/>
+      <selection activeCell="A2" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C18D7C0-C2CA-4011-A27E-6B97DAFB874A}">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A2:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UNIVER.xlsx
+++ b/UNIVER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TSTUz-BAZA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TSTUUzProject\TSTUUzDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B778B268-447D-4AB3-A45B-6B9B1CD42F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7FDCC5-A252-43D0-905A-F1BD8601D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Univer" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="182">
   <si>
     <t>#</t>
   </si>
@@ -582,6 +582,18 @@
   </si>
   <si>
     <t>updated_at user_id</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>sites_id</t>
+  </si>
+  <si>
+    <t>sites_translation_id</t>
+  </si>
+  <si>
+    <t>site_type_translation_id</t>
   </si>
 </sst>
 </file>
@@ -973,18 +985,18 @@
       <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="18" style="5" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1012,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1021,7 +1033,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1067,7 +1079,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1130,7 +1142,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1193,7 +1205,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F11" s="3">
         <v>9</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" s="3">
         <v>10</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F13" s="3">
         <v>11</v>
       </c>
@@ -1235,14 +1247,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>100</v>
@@ -1251,7 +1263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>112</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="9"/>
     </row>
   </sheetData>
@@ -1280,18 +1292,18 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -1308,12 +1320,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>36</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1338,7 +1350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -1352,7 +1364,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -1369,7 +1381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -1386,7 +1398,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -1400,7 +1412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1436,7 +1448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1450,7 +1462,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -1483,12 +1495,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>171</v>
       </c>
@@ -1506,9 +1518,9 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1550,14 +1562,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1571,19 +1583,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,12 +1603,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1604,7 +1616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -1612,7 +1624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>113</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>114</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1676,7 +1688,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>117</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>118</v>
       </c>
@@ -1692,7 +1704,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>119</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1708,12 +1720,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1773,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -1769,7 +1781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -1777,7 +1789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -1785,7 +1797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1793,7 +1805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>20</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>5</v>
       </c>
@@ -1817,7 +1829,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>26</v>
       </c>
@@ -1825,7 +1837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>27</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>28</v>
       </c>
@@ -1841,7 +1853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>29</v>
       </c>
@@ -1849,7 +1861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>80</v>
       </c>
@@ -1857,7 +1869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>82</v>
       </c>
@@ -1865,7 +1877,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>84</v>
       </c>
@@ -1873,7 +1885,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>10</v>
       </c>
@@ -1881,7 +1893,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>12</v>
       </c>
@@ -1897,7 +1909,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1929,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1931,14 +1943,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1949,7 +1961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1957,7 +1969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1990,7 +2002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2001,7 +2013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2023,7 +2035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2041,30 +2053,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645AECF7-183F-42B0-82D3-52FF2ABAD1B1}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2080,7 +2092,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -2194,7 +2206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -2214,7 +2226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>40</v>
       </c>
@@ -2225,7 +2237,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
@@ -2236,7 +2257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>89</v>
       </c>
@@ -2245,6 +2266,17 @@
       </c>
       <c r="G13" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2261,27 +2293,27 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2297,7 +2329,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2314,7 +2346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2331,7 +2363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>94</v>
       </c>
@@ -2342,7 +2374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>93</v>
       </c>
@@ -2353,7 +2385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -2375,30 +2407,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C18D7C0-C2CA-4011-A27E-6B97DAFB874A}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2414,7 +2446,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2431,7 +2463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2442,7 +2474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2456,7 +2488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -2470,27 +2502,39 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -2500,8 +2544,11 @@
       <c r="C12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -2510,6 +2557,56 @@
       </c>
       <c r="C13" t="s">
         <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2529,24 +2626,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2562,7 +2659,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2579,7 +2676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>36</v>
       </c>
@@ -2587,7 +2684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>94</v>
       </c>
@@ -2598,7 +2695,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>93</v>
       </c>
@@ -2626,24 +2723,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -2659,7 +2756,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2676,7 +2773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>36</v>
       </c>
@@ -2684,7 +2781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>94</v>
       </c>
@@ -2695,7 +2792,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>93</v>
       </c>

--- a/UNIVER.xlsx
+++ b/UNIVER.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TSTUUzProject\TSTUUzDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\TSTUz-BAZA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7FDCC5-A252-43D0-905A-F1BD8601D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E7EB3-D751-4B37-928C-885C643CD1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="660" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Univer" sheetId="8" r:id="rId1"/>
     <sheet name="DB" sheetId="1" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="10" r:id="rId3"/>
-    <sheet name="Languages" sheetId="4" r:id="rId4"/>
-    <sheet name="Sites" sheetId="2" r:id="rId5"/>
-    <sheet name="Site_types_x0009__x0009_" sheetId="3" r:id="rId6"/>
-    <sheet name="Site_details_x0009__x0009_" sheetId="6" r:id="rId7"/>
-    <sheet name="Home_page" sheetId="7" r:id="rId8"/>
-    <sheet name="Home_page (2)" sheetId="9" r:id="rId9"/>
-    <sheet name="users" sheetId="11" r:id="rId10"/>
-    <sheet name="Лист2" sheetId="12" r:id="rId11"/>
-    <sheet name="departaments_details" sheetId="13" r:id="rId12"/>
+    <sheet name="Languages" sheetId="4" r:id="rId3"/>
+    <sheet name="Sites" sheetId="2" r:id="rId4"/>
+    <sheet name="Site_types_x0009__x0009_" sheetId="3" r:id="rId5"/>
+    <sheet name="Site_details_x0009__x0009_" sheetId="6" r:id="rId6"/>
+    <sheet name="Home_page" sheetId="7" r:id="rId7"/>
+    <sheet name="Home_page (2)" sheetId="9" r:id="rId8"/>
+    <sheet name="users" sheetId="11" r:id="rId9"/>
+    <sheet name="Лист2" sheetId="12" r:id="rId10"/>
+    <sheet name="Лист4" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="187">
   <si>
     <t>#</t>
   </si>
@@ -594,6 +593,21 @@
   </si>
   <si>
     <t>site_type_translation_id</t>
+  </si>
+  <si>
+    <t>Blogs_categoreas_id</t>
+  </si>
+  <si>
+    <t>Blogs_Translate</t>
+  </si>
+  <si>
+    <t>pagesdagilar</t>
+  </si>
+  <si>
+    <t>Blogs_category</t>
+  </si>
+  <si>
+    <t>Blogs_category_Translate</t>
   </si>
 </sst>
 </file>
@@ -985,18 +999,18 @@
       <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="18" style="5" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1026,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1033,7 +1047,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1056,7 +1070,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1079,7 +1093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1100,7 +1114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1142,7 +1156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1163,7 +1177,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1184,7 +1198,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1205,7 +1219,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>9</v>
       </c>
@@ -1219,7 +1233,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12" s="3">
         <v>10</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13" s="3">
         <v>11</v>
       </c>
@@ -1247,14 +1261,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>100</v>
@@ -1263,7 +1277,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>112</v>
       </c>
@@ -1271,7 +1285,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
     </row>
   </sheetData>
@@ -1285,232 +1299,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180D7C28-E627-4AFB-9DE2-E9B53CB16301}">
-  <dimension ref="A1:K28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664D34E3-92CA-4EC7-8231-1AF23524D848}">
   <dimension ref="A2:I2"/>
   <sheetViews>
@@ -1518,9 +1306,12 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1554,24 +1345,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630FCF58-3964-4532-82CA-D0070D3AEE72}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A048F57-1CE2-4A3D-A0F3-A6A272BF1737}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1587,15 +1405,15 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,12 +1421,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -1624,7 +1442,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1632,7 +1450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1640,7 +1458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>113</v>
       </c>
@@ -1648,7 +1466,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>114</v>
       </c>
@@ -1656,7 +1474,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1664,7 +1482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1672,7 +1490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1498,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1688,7 +1506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>117</v>
       </c>
@@ -1696,7 +1514,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>118</v>
       </c>
@@ -1704,7 +1522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>119</v>
       </c>
@@ -1712,7 +1530,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1720,12 +1538,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1733,7 +1551,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -1741,7 +1559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -1749,7 +1567,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1757,7 +1575,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -1765,7 +1583,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -1781,7 +1599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -1797,7 +1615,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1805,7 +1623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -1813,7 +1631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>26</v>
       </c>
@@ -1837,7 +1655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>27</v>
       </c>
@@ -1845,7 +1663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>28</v>
       </c>
@@ -1853,7 +1671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>29</v>
       </c>
@@ -1861,7 +1679,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>80</v>
       </c>
@@ -1869,7 +1687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>82</v>
       </c>
@@ -1877,7 +1695,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>84</v>
       </c>
@@ -1885,7 +1703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -1901,7 +1719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>12</v>
       </c>
@@ -1909,7 +1727,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>13</v>
       </c>
@@ -1924,159 +1742,384 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C325DC4B-67DD-4C3F-BB0E-374B5D95947E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDBFC21-B8E0-458A-986C-22701D0522E2}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDBFC21-B8E0-458A-986C-22701D0522E2}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645AECF7-183F-42B0-82D3-52FF2ABAD1B1}">
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
       </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645AECF7-183F-42B0-82D3-52FF2ABAD1B1}">
-  <dimension ref="A2:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444FB507-86B5-438F-A976-C618152B991B}">
+  <dimension ref="A2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2087,12 +2130,12 @@
         <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2109,7 +2152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2126,18 +2169,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -2146,16 +2180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>93</v>
       </c>
@@ -2166,16 +2191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -2184,99 +2200,6 @@
       </c>
       <c r="G8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2289,31 +2212,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444FB507-86B5-438F-A976-C618152B991B}">
-  <dimension ref="A2:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C18D7C0-C2CA-4011-A27E-6B97DAFB874A}">
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2324,12 +2247,12 @@
         <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2346,16 +2269,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
@@ -2363,9 +2280,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -2374,7 +2294,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
       <c r="E7" t="s">
         <v>93</v>
       </c>
@@ -2385,15 +2308,111 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2406,31 +2425,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C18D7C0-C2CA-4011-A27E-6B97DAFB874A}">
-  <dimension ref="A2:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E953EFC-652A-43DE-BBBD-C054C29DC218}">
+  <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2441,12 +2460,12 @@
         <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2463,10 +2482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>36</v>
       </c>
@@ -2474,12 +2490,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -2488,10 +2501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>93</v>
       </c>
@@ -2500,113 +2510,6 @@
       </c>
       <c r="G7" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2619,38 +2522,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E953EFC-652A-43DE-BBBD-C054C29DC218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19097FE7-DB2B-4467-9DD1-D9B8478FDDA2}">
   <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -2659,24 +2562,24 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>36</v>
       </c>
@@ -2684,7 +2587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>94</v>
       </c>
@@ -2695,7 +2598,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>93</v>
       </c>
@@ -2716,98 +2619,227 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19097FE7-DB2B-4467-9DD1-D9B8478FDDA2}">
-  <dimension ref="A2:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180D7C28-E627-4AFB-9DE2-E9B53CB16301}">
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>91</v>
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E3:G3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>